--- a/Coords_BMotion.xlsx
+++ b/Coords_BMotion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seb\Documents\GitHub\Prog_Proj_Grp18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0FB85A-6FE5-497E-9FDD-4783E7B9306D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C76F948-A2FF-4FBE-AC9F-87D24FC6B9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1A9A3B08-0366-4E1E-840B-E23106E8742F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1A9A3B08-0366-4E1E-840B-E23106E8742F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,12 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434202A0-9A77-49DF-8788-2FA3035036F4}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,66 +537,84 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>656</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>198</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>46</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>856</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>389</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>46</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>473</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>389</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>46</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DE2C46-01F5-4C08-B17B-4399BBAD473D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>